--- a/TrainData.xlsx
+++ b/TrainData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtqc1\OneDrive\Documents\GitHub\PH132-Team-Design-Canadian-Slaving-Skeletal-Emus-CSSE-\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_E7ACF5FE722D2C9898C2D3D6CA3D529DEA953D83" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC91F64C-736F-4DBD-889B-9F1CD143077E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13500" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12 V" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="13">
   <si>
     <t>Auto</t>
   </si>
@@ -56,11 +57,23 @@
   <si>
     <t>4 V</t>
   </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Average V</t>
+  </si>
+  <si>
+    <t>Average time</t>
+  </si>
+  <si>
+    <t>Average Velocity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,14 +384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -387,12 +400,12 @@
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -423,8 +436,14 @@
       <c r="N2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -456,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.108</v>
       </c>
@@ -488,7 +507,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.156</v>
       </c>
@@ -520,7 +539,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.193</v>
       </c>
@@ -552,7 +571,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.22600000000000001</v>
       </c>
@@ -584,7 +603,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.25700000000000001</v>
       </c>
@@ -616,7 +635,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.28799999999999998</v>
       </c>
@@ -648,7 +667,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.318</v>
       </c>
@@ -680,7 +699,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.34799999999999998</v>
       </c>
@@ -712,7 +731,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.378</v>
       </c>
@@ -744,7 +763,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.41</v>
       </c>
@@ -776,7 +795,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.441</v>
       </c>
@@ -808,7 +827,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.47</v>
       </c>
@@ -840,7 +859,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -872,7 +891,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.52900000000000003</v>
       </c>
@@ -904,7 +923,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.55800000000000005</v>
       </c>
@@ -936,7 +955,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.58699999999999997</v>
       </c>
@@ -968,7 +987,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.61599999999999999</v>
       </c>
@@ -1000,7 +1019,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.64500000000000002</v>
       </c>
@@ -1032,7 +1051,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.67400000000000004</v>
       </c>
@@ -1064,7 +1083,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.70299999999999996</v>
       </c>
@@ -1096,7 +1115,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.73099999999999998</v>
       </c>
@@ -1128,7 +1147,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.76</v>
       </c>
@@ -1160,7 +1179,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.78900000000000003</v>
       </c>
@@ -1192,7 +1211,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.81799999999999995</v>
       </c>
@@ -1224,7 +1243,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.84699999999999998</v>
       </c>
@@ -1256,7 +1275,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.876</v>
       </c>
@@ -1288,7 +1307,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.90600000000000003</v>
       </c>
@@ -1320,7 +1339,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.93500000000000005</v>
       </c>
@@ -1352,7 +1371,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.96399999999999997</v>
       </c>
@@ -1384,7 +1403,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.99</v>
       </c>
@@ -1416,7 +1435,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.0169999999999999</v>
       </c>
@@ -1448,7 +1467,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.046</v>
       </c>
@@ -1480,7 +1499,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.075</v>
       </c>
@@ -1512,7 +1531,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.1040000000000001</v>
       </c>
@@ -1544,7 +1563,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.133</v>
       </c>
@@ -1576,7 +1595,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1.161</v>
       </c>
@@ -1608,7 +1627,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1.19</v>
       </c>
@@ -1640,7 +1659,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1.2190000000000001</v>
       </c>
@@ -1672,7 +1691,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1.248</v>
       </c>
@@ -1704,7 +1723,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.276</v>
       </c>
@@ -1736,7 +1755,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.3049999999999999</v>
       </c>
@@ -1768,7 +1787,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.3340000000000001</v>
       </c>
@@ -1800,7 +1819,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.363</v>
       </c>
@@ -1832,7 +1851,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1.391</v>
       </c>
@@ -1864,7 +1883,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1.42</v>
       </c>
@@ -1896,7 +1915,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1.4490000000000001</v>
       </c>
@@ -1928,7 +1947,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1.478</v>
       </c>
@@ -1960,7 +1979,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.5069999999999999</v>
       </c>
@@ -1992,7 +2011,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.5349999999999999</v>
       </c>
@@ -2024,7 +2043,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.5649999999999999</v>
       </c>
@@ -2056,7 +2075,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1.595</v>
       </c>
@@ -2088,7 +2107,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1.6240000000000001</v>
       </c>
@@ -2120,7 +2139,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.653</v>
       </c>
@@ -2152,7 +2171,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.6819999999999999</v>
       </c>
@@ -2184,7 +2203,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.71</v>
       </c>
@@ -2216,7 +2235,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1.7390000000000001</v>
       </c>
@@ -2248,7 +2267,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1.768</v>
       </c>
@@ -2280,7 +2299,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.7969999999999999</v>
       </c>
@@ -2312,7 +2331,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1.8260000000000001</v>
       </c>
@@ -2344,7 +2363,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1.8540000000000001</v>
       </c>
@@ -2376,7 +2395,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1.8819999999999999</v>
       </c>
@@ -2408,7 +2427,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1.911</v>
       </c>
@@ -2440,7 +2459,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1.94</v>
       </c>
@@ -2472,7 +2491,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1.97</v>
       </c>
@@ -2504,7 +2523,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1.9990000000000001</v>
       </c>
@@ -2536,7 +2555,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.028</v>
       </c>
@@ -2568,7 +2587,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.0569999999999999</v>
       </c>
@@ -2600,7 +2619,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2.0859999999999999</v>
       </c>
@@ -2632,7 +2651,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2.1139999999999999</v>
       </c>
@@ -2664,7 +2683,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2.141</v>
       </c>
@@ -2696,7 +2715,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2.169</v>
       </c>
@@ -2728,7 +2747,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2.198</v>
       </c>
@@ -2760,7 +2779,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2.2269999999999999</v>
       </c>
@@ -2792,7 +2811,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2.2549999999999999</v>
       </c>
@@ -2824,7 +2843,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2.2839999999999998</v>
       </c>
@@ -2856,7 +2875,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2.3130000000000002</v>
       </c>
@@ -2888,7 +2907,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2.3420000000000001</v>
       </c>
@@ -2920,7 +2939,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2.371</v>
       </c>
@@ -2952,7 +2971,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2.4</v>
       </c>
@@ -2984,7 +3003,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2.4300000000000002</v>
       </c>
@@ -3016,7 +3035,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2.4609999999999999</v>
       </c>
@@ -3048,7 +3067,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2.4900000000000002</v>
       </c>
@@ -3080,7 +3099,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2.5190000000000001</v>
       </c>
@@ -3112,7 +3131,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2.5470000000000002</v>
       </c>
@@ -3144,7 +3163,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2.5760000000000001</v>
       </c>
@@ -3176,7 +3195,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2.6040000000000001</v>
       </c>
@@ -3208,7 +3227,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2.6320000000000001</v>
       </c>
@@ -3240,7 +3259,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2.66</v>
       </c>
@@ -3272,7 +3291,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2.6890000000000001</v>
       </c>
@@ -3304,7 +3323,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2.7160000000000002</v>
       </c>
@@ -3336,7 +3355,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2.742</v>
       </c>
@@ -3368,7 +3387,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2.77</v>
       </c>
@@ -3400,7 +3419,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2.7989999999999999</v>
       </c>
@@ -3432,7 +3451,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2.827</v>
       </c>
@@ -3464,7 +3483,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2.8559999999999999</v>
       </c>
@@ -3496,7 +3515,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2.8839999999999999</v>
       </c>
@@ -3528,7 +3547,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2.9129999999999998</v>
       </c>
@@ -3560,7 +3579,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2.9420000000000002</v>
       </c>
@@ -3592,7 +3611,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2.97</v>
       </c>
@@ -3624,7 +3643,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3.0019999999999998</v>
       </c>
@@ -3656,7 +3675,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>3.0350000000000001</v>
       </c>
@@ -3688,7 +3707,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>3.0640000000000001</v>
       </c>
@@ -3720,7 +3739,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>3.0920000000000001</v>
       </c>
@@ -3752,7 +3771,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>3.121</v>
       </c>
@@ -3784,7 +3803,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3.149</v>
       </c>
@@ -3816,7 +3835,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>3.177</v>
       </c>
@@ -3848,7 +3867,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>3.2050000000000001</v>
       </c>
@@ -3880,7 +3899,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>3.234</v>
       </c>
@@ -3912,7 +3931,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3.262</v>
       </c>
@@ -3944,7 +3963,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>3.2879999999999998</v>
       </c>
@@ -3976,7 +3995,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>3.3140000000000001</v>
       </c>
@@ -4008,7 +4027,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3.343</v>
       </c>
@@ -4040,7 +4059,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>3.371</v>
       </c>
@@ -4072,7 +4091,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>3.399</v>
       </c>
@@ -4104,7 +4123,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>3.4279999999999999</v>
       </c>
@@ -4136,7 +4155,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>3.456</v>
       </c>
@@ -4168,7 +4187,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>3.484</v>
       </c>
@@ -4200,7 +4219,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>3.512</v>
       </c>
@@ -4232,7 +4251,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>3.5409999999999999</v>
       </c>
@@ -4264,7 +4283,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>3.569</v>
       </c>
@@ -4296,7 +4315,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3.5979999999999999</v>
       </c>
@@ -4328,7 +4347,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>3.6269999999999998</v>
       </c>
@@ -4360,7 +4379,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3.6549999999999998</v>
       </c>
@@ -4392,7 +4411,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>3.6829999999999998</v>
       </c>
@@ -4424,7 +4443,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>3.7109999999999999</v>
       </c>
@@ -4456,7 +4475,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>3.7389999999999999</v>
       </c>
@@ -4488,7 +4507,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>3.7679999999999998</v>
       </c>
@@ -4520,7 +4539,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3.7959999999999998</v>
       </c>
@@ -4552,7 +4571,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3.8239999999999998</v>
       </c>
@@ -4584,7 +4603,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>3.8540000000000001</v>
       </c>
@@ -4616,7 +4635,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>3.883</v>
       </c>
@@ -4648,7 +4667,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>3.911</v>
       </c>
@@ -4680,7 +4699,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3.94</v>
       </c>
@@ -4712,7 +4731,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3.968</v>
       </c>
@@ -4744,7 +4763,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>3.996</v>
       </c>
@@ -4776,7 +4795,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4.024</v>
       </c>
@@ -4808,7 +4827,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>4.0519999999999996</v>
       </c>
@@ -4840,7 +4859,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>4.08</v>
       </c>
@@ -4872,7 +4891,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>4.1079999999999997</v>
       </c>
@@ -4904,7 +4923,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>4.1349999999999998</v>
       </c>
@@ -4936,7 +4955,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>4.1619999999999999</v>
       </c>
@@ -4968,7 +4987,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>4.1900000000000004</v>
       </c>
@@ -5000,7 +5019,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>4.218</v>
       </c>
@@ -5032,7 +5051,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>4.2460000000000004</v>
       </c>
@@ -5064,7 +5083,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>4.274</v>
       </c>
@@ -5096,7 +5115,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>4.3019999999999996</v>
       </c>
@@ -5128,7 +5147,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>4.3310000000000004</v>
       </c>
@@ -5160,7 +5179,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>4.359</v>
       </c>
@@ -5192,7 +5211,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>4.3869999999999996</v>
       </c>
@@ -5224,7 +5243,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>4.415</v>
       </c>
@@ -5256,7 +5275,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>4.4429999999999996</v>
       </c>
@@ -5288,7 +5307,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>4.4710000000000001</v>
       </c>
@@ -5320,7 +5339,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>4.4989999999999997</v>
       </c>
@@ -5352,7 +5371,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>4.5270000000000001</v>
       </c>
@@ -5384,7 +5403,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>4.5549999999999997</v>
       </c>
@@ -5416,7 +5435,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>4.5830000000000002</v>
       </c>
@@ -5448,7 +5467,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>4.6109999999999998</v>
       </c>
@@ -5480,7 +5499,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>4.6390000000000002</v>
       </c>
@@ -5512,7 +5531,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>4.6680000000000001</v>
       </c>
@@ -5544,7 +5563,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>4.6959999999999997</v>
       </c>
@@ -5576,7 +5595,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>4.7229999999999999</v>
       </c>
@@ -5608,7 +5627,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>4.7519999999999998</v>
       </c>
@@ -5640,7 +5659,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>4.78</v>
       </c>
@@ -5672,7 +5691,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>4.8090000000000002</v>
       </c>
@@ -5704,7 +5723,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>4.8369999999999997</v>
       </c>
@@ -5736,7 +5755,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>4.8659999999999997</v>
       </c>
@@ -5768,7 +5787,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>4.8940000000000001</v>
       </c>
@@ -5800,7 +5819,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>4.9219999999999997</v>
       </c>
@@ -5832,7 +5851,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>4.95</v>
       </c>
@@ -5864,7 +5883,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>4.9800000000000004</v>
       </c>
@@ -5896,7 +5915,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>5.01</v>
       </c>
@@ -5928,7 +5947,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>5.0389999999999997</v>
       </c>
@@ -5960,7 +5979,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>5.0670000000000002</v>
       </c>
@@ -5992,7 +6011,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>5.0949999999999998</v>
       </c>
@@ -6024,7 +6043,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>5.1219999999999999</v>
       </c>
@@ -6056,7 +6075,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>5.15</v>
       </c>
@@ -6088,7 +6107,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>5.1779999999999999</v>
       </c>
@@ -6120,7 +6139,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>5.2060000000000004</v>
       </c>
@@ -6152,7 +6171,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>5.234</v>
       </c>
@@ -6184,7 +6203,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>5.2610000000000001</v>
       </c>
@@ -6216,7 +6235,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>5.2880000000000003</v>
       </c>
@@ -6248,7 +6267,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>5.3159999999999998</v>
       </c>
@@ -6280,7 +6299,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>5.3440000000000003</v>
       </c>
@@ -6312,7 +6331,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>5.3719999999999999</v>
       </c>
@@ -6344,7 +6363,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>5.4</v>
       </c>
@@ -6376,7 +6395,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>5.4279999999999999</v>
       </c>
@@ -6408,7 +6427,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>5.4560000000000004</v>
       </c>
@@ -6440,7 +6459,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>5.484</v>
       </c>
@@ -6472,7 +6491,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>5.5119999999999996</v>
       </c>
@@ -6504,7 +6523,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>5.5380000000000003</v>
       </c>
@@ -6536,7 +6555,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>5.5640000000000001</v>
       </c>
@@ -6568,7 +6587,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>5.5919999999999996</v>
       </c>
@@ -6600,7 +6619,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>5.62</v>
       </c>
@@ -6632,7 +6651,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>5.6470000000000002</v>
       </c>
@@ -6664,7 +6683,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>5.6749999999999998</v>
       </c>
@@ -6696,7 +6715,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>5.7030000000000003</v>
       </c>
@@ -6728,7 +6747,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>5.7309999999999999</v>
       </c>
@@ -6760,7 +6779,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>5.7590000000000003</v>
       </c>
@@ -6792,7 +6811,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>5.7859999999999996</v>
       </c>
@@ -6830,14 +6849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:N202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -6846,12 +6865,12 @@
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6883,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6915,7 +6934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.10100000000000001</v>
       </c>
@@ -6947,7 +6966,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.14799999999999999</v>
       </c>
@@ -6979,7 +6998,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.188</v>
       </c>
@@ -7011,7 +7030,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.22500000000000001</v>
       </c>
@@ -7043,7 +7062,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.26200000000000001</v>
       </c>
@@ -7075,7 +7094,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.29799999999999999</v>
       </c>
@@ -7107,7 +7126,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.33300000000000002</v>
       </c>
@@ -7139,7 +7158,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.36799999999999999</v>
       </c>
@@ -7171,7 +7190,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.40300000000000002</v>
       </c>
@@ -7203,7 +7222,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.441</v>
       </c>
@@ -7235,7 +7254,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.47899999999999998</v>
       </c>
@@ -7267,7 +7286,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.51400000000000001</v>
       </c>
@@ -7299,7 +7318,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.54800000000000004</v>
       </c>
@@ -7331,7 +7350,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.58299999999999996</v>
       </c>
@@ -7363,7 +7382,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.61699999999999999</v>
       </c>
@@ -7395,7 +7414,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.65200000000000002</v>
       </c>
@@ -7427,7 +7446,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.68700000000000006</v>
       </c>
@@ -7459,7 +7478,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.72199999999999998</v>
       </c>
@@ -7491,7 +7510,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.75700000000000001</v>
       </c>
@@ -7523,7 +7542,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.79</v>
       </c>
@@ -7555,7 +7574,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.82399999999999995</v>
       </c>
@@ -7587,7 +7606,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.85899999999999999</v>
       </c>
@@ -7619,7 +7638,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.89400000000000002</v>
       </c>
@@ -7651,7 +7670,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.92900000000000005</v>
       </c>
@@ -7683,7 +7702,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.96399999999999997</v>
       </c>
@@ -7715,7 +7734,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.999</v>
       </c>
@@ -7747,7 +7766,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1.0329999999999999</v>
       </c>
@@ -7779,7 +7798,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1.0680000000000001</v>
       </c>
@@ -7811,7 +7830,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.103</v>
       </c>
@@ -7843,7 +7862,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1.135</v>
       </c>
@@ -7875,7 +7894,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.167</v>
       </c>
@@ -7907,7 +7926,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.2010000000000001</v>
       </c>
@@ -7939,7 +7958,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.236</v>
       </c>
@@ -7971,7 +7990,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.2709999999999999</v>
       </c>
@@ -8003,7 +8022,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.3049999999999999</v>
       </c>
@@ -8035,7 +8054,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1.34</v>
       </c>
@@ -8067,7 +8086,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1.375</v>
       </c>
@@ -8099,7 +8118,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1.409</v>
       </c>
@@ -8131,7 +8150,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1.4430000000000001</v>
       </c>
@@ -8163,7 +8182,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.478</v>
       </c>
@@ -8195,7 +8214,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.5129999999999999</v>
       </c>
@@ -8227,7 +8246,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.5469999999999999</v>
       </c>
@@ -8259,7 +8278,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.5820000000000001</v>
       </c>
@@ -8291,7 +8310,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1.617</v>
       </c>
@@ -8323,7 +8342,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1.651</v>
       </c>
@@ -8355,7 +8374,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1.6850000000000001</v>
       </c>
@@ -8387,7 +8406,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1.72</v>
       </c>
@@ -8419,7 +8438,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.7549999999999999</v>
       </c>
@@ -8451,7 +8470,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.7889999999999999</v>
       </c>
@@ -8483,7 +8502,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.8260000000000001</v>
       </c>
@@ -8515,7 +8534,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1.8620000000000001</v>
       </c>
@@ -8547,7 +8566,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1.897</v>
       </c>
@@ -8579,7 +8598,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.931</v>
       </c>
@@ -8611,7 +8630,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.966</v>
       </c>
@@ -8643,7 +8662,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2.0019999999999998</v>
       </c>
@@ -8675,7 +8694,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.0369999999999999</v>
       </c>
@@ -8707,7 +8726,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.0710000000000002</v>
       </c>
@@ -8739,7 +8758,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2.1059999999999999</v>
       </c>
@@ -8771,7 +8790,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2.141</v>
       </c>
@@ -8803,7 +8822,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2.1739999999999999</v>
       </c>
@@ -8835,7 +8854,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2.2069999999999999</v>
       </c>
@@ -8867,7 +8886,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2.2429999999999999</v>
       </c>
@@ -8899,7 +8918,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2.278</v>
       </c>
@@ -8931,7 +8950,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2.3130000000000002</v>
       </c>
@@ -8963,7 +8982,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2.3479999999999999</v>
       </c>
@@ -8995,7 +9014,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.3839999999999999</v>
       </c>
@@ -9027,7 +9046,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.419</v>
       </c>
@@ -9059,7 +9078,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2.4540000000000002</v>
       </c>
@@ -9091,7 +9110,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2.4900000000000002</v>
       </c>
@@ -9123,7 +9142,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2.5230000000000001</v>
       </c>
@@ -9155,7 +9174,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2.556</v>
       </c>
@@ -9187,7 +9206,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2.5910000000000002</v>
       </c>
@@ -9219,7 +9238,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2.6259999999999999</v>
       </c>
@@ -9251,7 +9270,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2.6619999999999999</v>
       </c>
@@ -9283,7 +9302,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2.6970000000000001</v>
       </c>
@@ -9315,7 +9334,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2.7320000000000002</v>
       </c>
@@ -9347,7 +9366,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2.7669999999999999</v>
       </c>
@@ -9379,7 +9398,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2.8010000000000002</v>
       </c>
@@ -9411,7 +9430,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2.8359999999999999</v>
       </c>
@@ -9443,7 +9462,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2.8740000000000001</v>
       </c>
@@ -9475,7 +9494,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2.9119999999999999</v>
       </c>
@@ -9507,7 +9526,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2.9470000000000001</v>
       </c>
@@ -9539,7 +9558,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2.9809999999999999</v>
       </c>
@@ -9571,7 +9590,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3.016</v>
       </c>
@@ -9603,7 +9622,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3.05</v>
       </c>
@@ -9635,7 +9654,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>3.085</v>
       </c>
@@ -9667,7 +9686,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>3.12</v>
       </c>
@@ -9699,7 +9718,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>3.1549999999999998</v>
       </c>
@@ -9731,7 +9750,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>3.19</v>
       </c>
@@ -9763,7 +9782,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>3.222</v>
       </c>
@@ -9795,7 +9814,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3.254</v>
       </c>
@@ -9827,7 +9846,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3.2890000000000001</v>
       </c>
@@ -9859,7 +9878,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>3.3239999999999998</v>
       </c>
@@ -9891,7 +9910,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>3.359</v>
       </c>
@@ -9923,7 +9942,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>3.3940000000000001</v>
       </c>
@@ -9955,7 +9974,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>3.4289999999999998</v>
       </c>
@@ -9987,7 +10006,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3.464</v>
       </c>
@@ -10019,7 +10038,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>3.4980000000000002</v>
       </c>
@@ -10051,7 +10070,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>3.5339999999999998</v>
       </c>
@@ -10083,7 +10102,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3.5739999999999998</v>
       </c>
@@ -10115,7 +10134,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>3.6139999999999999</v>
       </c>
@@ -10147,7 +10166,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>3.6480000000000001</v>
       </c>
@@ -10179,7 +10198,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>3.6829999999999998</v>
       </c>
@@ -10211,7 +10230,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>3.7170000000000001</v>
       </c>
@@ -10243,7 +10262,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3.7519999999999998</v>
       </c>
@@ -10275,7 +10294,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>3.7879999999999998</v>
       </c>
@@ -10307,7 +10326,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>3.8220000000000001</v>
       </c>
@@ -10339,7 +10358,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>3.8570000000000002</v>
       </c>
@@ -10371,7 +10390,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>3.891</v>
       </c>
@@ -10403,7 +10422,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>3.923</v>
       </c>
@@ -10435,7 +10454,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>3.9550000000000001</v>
       </c>
@@ -10467,7 +10486,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3.99</v>
       </c>
@@ -10499,7 +10518,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>4.0250000000000004</v>
       </c>
@@ -10531,7 +10550,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>4.0599999999999996</v>
       </c>
@@ -10563,7 +10582,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>4.0940000000000003</v>
       </c>
@@ -10595,7 +10614,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>4.1289999999999996</v>
       </c>
@@ -10627,7 +10646,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>4.1639999999999997</v>
       </c>
@@ -10659,7 +10678,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>4.1989999999999998</v>
       </c>
@@ -10691,7 +10710,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>4.2329999999999997</v>
       </c>
@@ -10723,7 +10742,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>4.2690000000000001</v>
       </c>
@@ -10755,7 +10774,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>4.3040000000000003</v>
       </c>
@@ -10787,7 +10806,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>4.3380000000000001</v>
       </c>
@@ -10819,7 +10838,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>4.3730000000000002</v>
       </c>
@@ -10851,7 +10870,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>4.407</v>
       </c>
@@ -10883,7 +10902,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>4.4429999999999996</v>
       </c>
@@ -10915,7 +10934,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>4.4770000000000003</v>
       </c>
@@ -10947,7 +10966,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>4.5110000000000001</v>
       </c>
@@ -10979,7 +10998,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>4.5449999999999999</v>
       </c>
@@ -11011,7 +11030,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>4.58</v>
       </c>
@@ -11043,7 +11062,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>4.6159999999999997</v>
       </c>
@@ -11075,7 +11094,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>4.6520000000000001</v>
       </c>
@@ -11107,7 +11126,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>4.6870000000000003</v>
       </c>
@@ -11139,7 +11158,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>4.7220000000000004</v>
       </c>
@@ -11171,7 +11190,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>4.7549999999999999</v>
       </c>
@@ -11203,7 +11222,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>4.79</v>
       </c>
@@ -11235,7 +11254,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4.8239999999999998</v>
       </c>
@@ -11267,7 +11286,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>4.859</v>
       </c>
@@ -11299,7 +11318,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>4.8929999999999998</v>
       </c>
@@ -11331,7 +11350,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>4.9279999999999999</v>
       </c>
@@ -11363,7 +11382,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>4.96</v>
       </c>
@@ -11395,7 +11414,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>4.992</v>
       </c>
@@ -11427,7 +11446,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>5.0259999999999998</v>
       </c>
@@ -11459,7 +11478,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>5.0609999999999999</v>
       </c>
@@ -11491,7 +11510,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>5.0960000000000001</v>
       </c>
@@ -11523,7 +11542,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>5.13</v>
       </c>
@@ -11555,7 +11574,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>5.1639999999999997</v>
       </c>
@@ -11587,7 +11606,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>5.1989999999999998</v>
       </c>
@@ -11619,7 +11638,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>5.2320000000000002</v>
       </c>
@@ -11651,7 +11670,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>5.266</v>
       </c>
@@ -11683,7 +11702,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>5.3010000000000002</v>
       </c>
@@ -11715,7 +11734,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>5.3360000000000003</v>
       </c>
@@ -11747,7 +11766,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>5.3689999999999998</v>
       </c>
@@ -11779,7 +11798,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>5.4029999999999996</v>
       </c>
@@ -11811,7 +11830,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>5.4370000000000003</v>
       </c>
@@ -11843,7 +11862,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>5.4710000000000001</v>
       </c>
@@ -11875,7 +11894,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>5.5060000000000002</v>
       </c>
@@ -11907,7 +11926,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>5.5410000000000004</v>
       </c>
@@ -11939,7 +11958,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>5.5750000000000002</v>
       </c>
@@ -11971,7 +11990,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>5.61</v>
       </c>
@@ -12003,7 +12022,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>5.6440000000000001</v>
       </c>
@@ -12035,7 +12054,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>5.6779999999999999</v>
       </c>
@@ -12067,7 +12086,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>5.7130000000000001</v>
       </c>
@@ -12099,7 +12118,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>5.7480000000000002</v>
       </c>
@@ -12131,7 +12150,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>5.7830000000000004</v>
       </c>
@@ -12163,7 +12182,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>5.8179999999999996</v>
       </c>
@@ -12195,7 +12214,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>5.8529999999999998</v>
       </c>
@@ -12227,7 +12246,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>5.8869999999999996</v>
       </c>
@@ -12259,7 +12278,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>5.9219999999999997</v>
       </c>
@@ -12291,7 +12310,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>5.9569999999999999</v>
       </c>
@@ -12323,7 +12342,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>5.9930000000000003</v>
       </c>
@@ -12355,7 +12374,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>6.0289999999999999</v>
       </c>
@@ -12387,7 +12406,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6.0640000000000001</v>
       </c>
@@ -12419,7 +12438,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>6.0979999999999999</v>
       </c>
@@ -12451,7 +12470,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>6.1319999999999997</v>
       </c>
@@ -12483,7 +12502,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>6.1669999999999998</v>
       </c>
@@ -12515,7 +12534,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>6.2009999999999996</v>
       </c>
@@ -12547,7 +12566,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>6.2350000000000003</v>
       </c>
@@ -12579,7 +12598,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>6.2690000000000001</v>
       </c>
@@ -12611,7 +12630,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>6.3029999999999999</v>
       </c>
@@ -12643,7 +12662,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>6.3369999999999997</v>
       </c>
@@ -12675,7 +12694,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>6.37</v>
       </c>
@@ -12707,7 +12726,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>6.4050000000000002</v>
       </c>
@@ -12739,7 +12758,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>6.44</v>
       </c>
@@ -12771,7 +12790,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>6.4740000000000002</v>
       </c>
@@ -12803,7 +12822,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>6.508</v>
       </c>
@@ -12835,7 +12854,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>6.5430000000000001</v>
       </c>
@@ -12867,7 +12886,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>6.577</v>
       </c>
@@ -12899,7 +12918,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>6.6120000000000001</v>
       </c>
@@ -12931,7 +12950,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>6.6459999999999999</v>
       </c>
@@ -12963,7 +12982,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>6.6779999999999999</v>
       </c>
@@ -12995,7 +13014,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>6.71</v>
       </c>
@@ -13027,7 +13046,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>6.7439999999999998</v>
       </c>
@@ -13059,7 +13078,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>6.7779999999999996</v>
       </c>
@@ -13091,7 +13110,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>6.8129999999999997</v>
       </c>
@@ -13123,7 +13142,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>6.8479999999999999</v>
       </c>
@@ -13155,7 +13174,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>6.8819999999999997</v>
       </c>
@@ -13187,7 +13206,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>6.915</v>
       </c>
@@ -13219,7 +13238,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>6.95</v>
       </c>
@@ -13251,7 +13270,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>6.984</v>
       </c>
@@ -13289,14 +13308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -13305,12 +13324,12 @@
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13342,7 +13361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13374,7 +13393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.11</v>
       </c>
@@ -13406,7 +13425,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.16600000000000001</v>
       </c>
@@ -13438,7 +13457,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.216</v>
       </c>
@@ -13470,7 +13489,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.26500000000000001</v>
       </c>
@@ -13502,7 +13521,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.311</v>
       </c>
@@ -13534,7 +13553,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.35899999999999999</v>
       </c>
@@ -13566,7 +13585,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.40699999999999997</v>
       </c>
@@ -13598,7 +13617,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.45500000000000002</v>
       </c>
@@ -13630,7 +13649,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.501</v>
       </c>
@@ -13662,7 +13681,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.55100000000000005</v>
       </c>
@@ -13694,7 +13713,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.60199999999999998</v>
       </c>
@@ -13726,7 +13745,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.64900000000000002</v>
       </c>
@@ -13758,7 +13777,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.69599999999999995</v>
       </c>
@@ -13790,7 +13809,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.74299999999999999</v>
       </c>
@@ -13822,7 +13841,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.78900000000000003</v>
       </c>
@@ -13854,7 +13873,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.83499999999999996</v>
       </c>
@@ -13886,7 +13905,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.88100000000000001</v>
       </c>
@@ -13918,7 +13937,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.92900000000000005</v>
       </c>
@@ -13950,7 +13969,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.97699999999999998</v>
       </c>
@@ -13982,7 +14001,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.0229999999999999</v>
       </c>
@@ -14014,7 +14033,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.069</v>
       </c>
@@ -14046,7 +14065,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.1160000000000001</v>
       </c>
@@ -14078,7 +14097,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.1619999999999999</v>
       </c>
@@ -14110,7 +14129,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1.208</v>
       </c>
@@ -14142,7 +14161,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1.2549999999999999</v>
       </c>
@@ -14174,7 +14193,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1.3029999999999999</v>
       </c>
@@ -14206,7 +14225,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1.349</v>
       </c>
@@ -14238,7 +14257,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1.3959999999999999</v>
       </c>
@@ -14270,7 +14289,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.4430000000000001</v>
       </c>
@@ -14302,7 +14321,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1.486</v>
       </c>
@@ -14334,7 +14353,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.5289999999999999</v>
       </c>
@@ -14366,7 +14385,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.577</v>
       </c>
@@ -14398,7 +14417,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.625</v>
       </c>
@@ -14430,7 +14449,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.671</v>
       </c>
@@ -14462,7 +14481,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.7170000000000001</v>
       </c>
@@ -14494,7 +14513,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1.764</v>
       </c>
@@ -14526,7 +14545,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1.8109999999999999</v>
       </c>
@@ -14558,7 +14577,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1.8580000000000001</v>
       </c>
@@ -14590,7 +14609,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1.9059999999999999</v>
       </c>
@@ -14622,7 +14641,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.9530000000000001</v>
       </c>
@@ -14654,7 +14673,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -14686,7 +14705,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.0459999999999998</v>
       </c>
@@ -14718,7 +14737,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.0920000000000001</v>
       </c>
@@ -14750,7 +14769,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.14</v>
       </c>
@@ -14782,7 +14801,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.1869999999999998</v>
       </c>
@@ -14814,7 +14833,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.234</v>
       </c>
@@ -14846,7 +14865,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2.2810000000000001</v>
       </c>
@@ -14878,7 +14897,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.3279999999999998</v>
       </c>
@@ -14910,7 +14929,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.3740000000000001</v>
       </c>
@@ -14942,7 +14961,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.423</v>
       </c>
@@ -14974,7 +14993,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2.4740000000000002</v>
       </c>
@@ -15006,7 +15025,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2.5219999999999998</v>
       </c>
@@ -15038,7 +15057,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2.5680000000000001</v>
       </c>
@@ -15070,7 +15089,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2.6160000000000001</v>
       </c>
@@ -15102,7 +15121,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2.6640000000000001</v>
       </c>
@@ -15134,7 +15153,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.7109999999999999</v>
       </c>
@@ -15166,7 +15185,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.76</v>
       </c>
@@ -15198,7 +15217,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2.8079999999999998</v>
       </c>
@@ -15230,7 +15249,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2.855</v>
       </c>
@@ -15262,7 +15281,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2.9</v>
       </c>
@@ -15294,7 +15313,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2.9449999999999998</v>
       </c>
@@ -15326,7 +15345,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2.9940000000000002</v>
       </c>
@@ -15358,7 +15377,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3.0419999999999998</v>
       </c>
@@ -15390,7 +15409,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3.0910000000000002</v>
       </c>
@@ -15422,7 +15441,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3.1389999999999998</v>
       </c>
@@ -15454,7 +15473,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>3.1880000000000002</v>
       </c>
@@ -15486,7 +15505,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3.2360000000000002</v>
       </c>
@@ -15518,7 +15537,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3.2829999999999999</v>
       </c>
@@ -15550,7 +15569,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3.3319999999999999</v>
       </c>
@@ -15582,7 +15601,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3.3769999999999998</v>
       </c>
@@ -15614,7 +15633,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3.4220000000000002</v>
       </c>
@@ -15646,7 +15665,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3.4689999999999999</v>
       </c>
@@ -15678,7 +15697,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3.5169999999999999</v>
       </c>
@@ -15710,7 +15729,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>3.5640000000000001</v>
       </c>
@@ -15742,7 +15761,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3.6120000000000001</v>
       </c>
@@ -15774,7 +15793,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3.66</v>
       </c>
@@ -15806,7 +15825,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3.7090000000000001</v>
       </c>
@@ -15838,7 +15857,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3.7559999999999998</v>
       </c>
@@ -15870,7 +15889,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3.802</v>
       </c>
@@ -15902,7 +15921,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>3.8540000000000001</v>
       </c>
@@ -15934,7 +15953,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>3.9060000000000001</v>
       </c>
@@ -15966,7 +15985,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3.9540000000000002</v>
       </c>
@@ -15998,7 +16017,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>4.0019999999999998</v>
       </c>
@@ -16030,7 +16049,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>4.0490000000000004</v>
       </c>
@@ -16062,7 +16081,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4.0960000000000001</v>
       </c>
@@ -16094,7 +16113,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4.1429999999999998</v>
       </c>
@@ -16126,7 +16145,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>4.1900000000000004</v>
       </c>
@@ -16158,7 +16177,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>4.2380000000000004</v>
       </c>
@@ -16190,7 +16209,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>4.2859999999999996</v>
       </c>
@@ -16222,7 +16241,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>4.33</v>
       </c>
@@ -16254,7 +16273,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>4.3739999999999997</v>
       </c>
@@ -16286,7 +16305,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4.4219999999999997</v>
       </c>
@@ -16318,7 +16337,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>4.4690000000000003</v>
       </c>
@@ -16350,7 +16369,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4.5170000000000003</v>
       </c>
@@ -16382,7 +16401,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4.5659999999999998</v>
       </c>
@@ -16414,7 +16433,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4.6139999999999999</v>
       </c>
@@ -16446,7 +16465,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>4.6609999999999996</v>
       </c>
@@ -16478,7 +16497,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>4.7080000000000002</v>
       </c>
@@ -16510,7 +16529,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>4.7549999999999999</v>
       </c>
@@ -16542,7 +16561,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>4.8099999999999996</v>
       </c>
@@ -16574,7 +16593,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>4.8650000000000002</v>
       </c>
@@ -16606,7 +16625,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>4.9139999999999997</v>
       </c>
@@ -16638,7 +16657,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>4.9619999999999997</v>
       </c>
@@ -16670,7 +16689,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>5.008</v>
       </c>
@@ -16702,7 +16721,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5.0549999999999997</v>
       </c>
@@ -16734,7 +16753,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5.1029999999999998</v>
       </c>
@@ -16766,7 +16785,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>5.1509999999999998</v>
       </c>
@@ -16798,7 +16817,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>5.1989999999999998</v>
       </c>
@@ -16830,7 +16849,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>5.2469999999999999</v>
       </c>
@@ -16862,7 +16881,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>5.29</v>
       </c>
@@ -16894,7 +16913,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>5.3330000000000002</v>
       </c>
@@ -16926,7 +16945,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>5.38</v>
       </c>
@@ -16958,7 +16977,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>5.4279999999999999</v>
       </c>
@@ -16990,7 +17009,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>5.476</v>
       </c>
@@ -17022,7 +17041,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>5.5229999999999997</v>
       </c>
@@ -17054,7 +17073,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>5.57</v>
       </c>
@@ -17086,7 +17105,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>5.6180000000000003</v>
       </c>
@@ -17118,7 +17137,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>5.665</v>
       </c>
@@ -17150,7 +17169,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>5.7119999999999997</v>
       </c>
@@ -17182,7 +17201,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>5.7610000000000001</v>
       </c>
@@ -17214,7 +17233,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>5.8109999999999999</v>
       </c>
@@ -17246,7 +17265,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>5.8570000000000002</v>
       </c>
@@ -17278,7 +17297,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>5.9039999999999999</v>
       </c>
@@ -17310,7 +17329,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>5.9509999999999996</v>
       </c>
@@ -17342,7 +17361,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5.9980000000000002</v>
       </c>
@@ -17374,7 +17393,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6.0449999999999999</v>
       </c>
@@ -17406,7 +17425,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6.093</v>
       </c>
@@ -17438,7 +17457,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6.14</v>
       </c>
@@ -17470,7 +17489,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6.1870000000000003</v>
       </c>
@@ -17502,7 +17521,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6.2350000000000003</v>
       </c>
@@ -17534,7 +17553,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6.2839999999999998</v>
       </c>
@@ -17566,7 +17585,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6.3319999999999999</v>
       </c>
@@ -17598,7 +17617,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6.3780000000000001</v>
       </c>
@@ -17630,7 +17649,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6.4249999999999998</v>
       </c>
@@ -17662,7 +17681,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6.4720000000000004</v>
       </c>
@@ -17694,7 +17713,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6.5179999999999998</v>
       </c>
@@ -17726,7 +17745,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6.5640000000000001</v>
       </c>
@@ -17758,7 +17777,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6.6109999999999998</v>
       </c>
@@ -17790,7 +17809,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6.6589999999999998</v>
       </c>
@@ -17822,7 +17841,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6.7030000000000003</v>
       </c>
@@ -17854,7 +17873,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6.7460000000000004</v>
       </c>
@@ -17886,7 +17905,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6.7930000000000001</v>
       </c>
@@ -17918,7 +17937,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6.84</v>
       </c>
@@ -17950,7 +17969,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6.8869999999999996</v>
       </c>
@@ -17982,7 +18001,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6.9340000000000002</v>
       </c>
@@ -18014,7 +18033,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6.9820000000000002</v>
       </c>
@@ -18046,7 +18065,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>7.0279999999999996</v>
       </c>
@@ -18078,7 +18097,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>7.0739999999999998</v>
       </c>
@@ -18110,7 +18129,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>7.12</v>
       </c>
@@ -18142,7 +18161,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>7.1660000000000004</v>
       </c>
@@ -18174,7 +18193,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>7.2130000000000001</v>
       </c>
@@ -18206,7 +18225,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>7.2590000000000003</v>
       </c>
@@ -18238,7 +18257,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>7.306</v>
       </c>
@@ -18270,7 +18289,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>7.3529999999999998</v>
       </c>
@@ -18302,7 +18321,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>7.399</v>
       </c>
@@ -18334,7 +18353,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>7.4450000000000003</v>
       </c>
@@ -18366,7 +18385,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>7.4930000000000003</v>
       </c>
@@ -18398,7 +18417,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>7.5419999999999998</v>
       </c>
@@ -18430,7 +18449,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>7.59</v>
       </c>
@@ -18462,7 +18481,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>7.6360000000000001</v>
       </c>
@@ -18494,7 +18513,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>7.6840000000000002</v>
       </c>
@@ -18526,7 +18545,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>7.7320000000000002</v>
       </c>
@@ -18558,7 +18577,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>7.7789999999999999</v>
       </c>
@@ -18590,7 +18609,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>7.8280000000000003</v>
       </c>
@@ -18622,7 +18641,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>7.8769999999999998</v>
       </c>
@@ -18654,7 +18673,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>7.923</v>
       </c>
@@ -18686,7 +18705,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>7.97</v>
       </c>
@@ -18718,7 +18737,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>8.0169999999999995</v>
       </c>
@@ -18750,7 +18769,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>8.0640000000000001</v>
       </c>
@@ -18782,7 +18801,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>8.1150000000000002</v>
       </c>
@@ -18814,7 +18833,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>8.1669999999999998</v>
       </c>
@@ -18846,7 +18865,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>8.2149999999999999</v>
       </c>
@@ -18878,7 +18897,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>8.2620000000000005</v>
       </c>
@@ -18910,7 +18929,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8.3079999999999998</v>
       </c>
@@ -18942,7 +18961,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>8.3550000000000004</v>
       </c>
@@ -18974,7 +18993,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>8.4030000000000005</v>
       </c>
@@ -19006,7 +19025,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>8.4499999999999993</v>
       </c>
@@ -19038,7 +19057,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8.4969999999999999</v>
       </c>
@@ -19070,7 +19089,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8.5440000000000005</v>
       </c>
@@ -19102,7 +19121,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8.59</v>
       </c>
@@ -19134,7 +19153,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8.6340000000000003</v>
       </c>
@@ -19166,7 +19185,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8.6820000000000004</v>
       </c>
@@ -19198,7 +19217,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8.73</v>
       </c>
@@ -19230,7 +19249,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>8.7780000000000005</v>
       </c>
@@ -19262,7 +19281,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>8.8239999999999998</v>
       </c>
@@ -19294,7 +19313,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>8.8710000000000004</v>
       </c>
@@ -19326,7 +19345,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>8.9179999999999993</v>
       </c>
@@ -19358,7 +19377,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>8.9649999999999999</v>
       </c>
@@ -19390,7 +19409,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>9.0129999999999999</v>
       </c>
@@ -19422,7 +19441,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>9.0570000000000004</v>
       </c>
@@ -19454,7 +19473,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>9.1010000000000009</v>
       </c>
@@ -19486,7 +19505,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>9.1470000000000002</v>
       </c>
@@ -19518,7 +19537,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>9.1940000000000008</v>
       </c>
@@ -19550,7 +19569,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>9.2409999999999997</v>
       </c>
@@ -19582,7 +19601,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>9.2880000000000003</v>
       </c>
@@ -19614,7 +19633,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>9.3350000000000009</v>
       </c>
@@ -19646,7 +19665,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>9.3829999999999991</v>
       </c>
@@ -19678,7 +19697,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>9.4309999999999992</v>
       </c>
@@ -19710,7 +19729,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>9.4770000000000003</v>
       </c>
@@ -19748,14 +19767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -19764,12 +19783,12 @@
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -19801,7 +19820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -19833,7 +19852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.13300000000000001</v>
       </c>
@@ -19865,7 +19884,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.217</v>
       </c>
@@ -19897,7 +19916,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.28799999999999998</v>
       </c>
@@ -19929,7 +19948,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.35699999999999998</v>
       </c>
@@ -19961,7 +19980,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.42799999999999999</v>
       </c>
@@ -19993,7 +20012,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.498</v>
       </c>
@@ -20025,7 +20044,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.56799999999999995</v>
       </c>
@@ -20057,7 +20076,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.64100000000000001</v>
       </c>
@@ -20089,7 +20108,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.71299999999999997</v>
       </c>
@@ -20121,7 +20140,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.78700000000000003</v>
       </c>
@@ -20153,7 +20172,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.86</v>
       </c>
@@ -20185,7 +20204,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.93</v>
       </c>
@@ -20217,7 +20236,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.0009999999999999</v>
       </c>
@@ -20249,7 +20268,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.071</v>
       </c>
@@ -20281,7 +20300,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.1419999999999999</v>
       </c>
@@ -20313,7 +20332,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.2130000000000001</v>
       </c>
@@ -20345,7 +20364,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.282</v>
       </c>
@@ -20377,7 +20396,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.35</v>
       </c>
@@ -20409,7 +20428,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.421</v>
       </c>
@@ -20441,7 +20460,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.4930000000000001</v>
       </c>
@@ -20473,7 +20492,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.5609999999999999</v>
       </c>
@@ -20505,7 +20524,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.63</v>
       </c>
@@ -20537,7 +20556,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.6990000000000001</v>
       </c>
@@ -20569,7 +20588,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1.7669999999999999</v>
       </c>
@@ -20601,7 +20620,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1.835</v>
       </c>
@@ -20633,7 +20652,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1.905</v>
       </c>
@@ -20665,7 +20684,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1.978</v>
       </c>
@@ -20697,7 +20716,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.048</v>
       </c>
@@ -20729,7 +20748,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.1160000000000001</v>
       </c>
@@ -20761,7 +20780,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.1800000000000002</v>
       </c>
@@ -20793,7 +20812,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.2450000000000001</v>
       </c>
@@ -20825,7 +20844,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2.3149999999999999</v>
       </c>
@@ -20857,7 +20876,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2.3860000000000001</v>
       </c>
@@ -20889,7 +20908,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2.4580000000000002</v>
       </c>
@@ -20921,7 +20940,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2.528</v>
       </c>
@@ -20953,7 +20972,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2.5960000000000001</v>
       </c>
@@ -20985,7 +21004,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.6640000000000001</v>
       </c>
@@ -21017,7 +21036,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.7349999999999999</v>
       </c>
@@ -21049,7 +21068,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.8069999999999999</v>
       </c>
@@ -21081,7 +21100,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.8780000000000001</v>
       </c>
@@ -21113,7 +21132,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.948</v>
       </c>
@@ -21145,7 +21164,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3.02</v>
       </c>
@@ -21177,7 +21196,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3.089</v>
       </c>
@@ -21209,7 +21228,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3.1579999999999999</v>
       </c>
@@ -21241,7 +21260,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3.2290000000000001</v>
       </c>
@@ -21273,7 +21292,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3.302</v>
       </c>
@@ -21305,7 +21324,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3.371</v>
       </c>
@@ -21337,7 +21356,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3.4409999999999998</v>
       </c>
@@ -21369,7 +21388,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3.5129999999999999</v>
       </c>
@@ -21401,7 +21420,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3.5870000000000002</v>
       </c>
@@ -21433,7 +21452,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3.661</v>
       </c>
@@ -21465,7 +21484,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3.7349999999999999</v>
       </c>
@@ -21497,7 +21516,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3.8079999999999998</v>
       </c>
@@ -21529,7 +21548,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3.8780000000000001</v>
       </c>
@@ -21561,7 +21580,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3.948</v>
       </c>
@@ -21593,7 +21612,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4.0209999999999999</v>
       </c>
@@ -21625,7 +21644,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4.0940000000000003</v>
       </c>
@@ -21657,7 +21676,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4.1660000000000004</v>
       </c>
@@ -21689,7 +21708,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4.2389999999999999</v>
       </c>
@@ -21721,7 +21740,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4.3099999999999996</v>
       </c>
@@ -21753,7 +21772,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4.3789999999999996</v>
       </c>
@@ -21785,7 +21804,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4.4489999999999998</v>
       </c>
@@ -21817,7 +21836,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4.5220000000000002</v>
       </c>
@@ -21849,7 +21868,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4.5979999999999999</v>
       </c>
@@ -21881,7 +21900,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4.673</v>
       </c>
@@ -21913,7 +21932,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4.7450000000000001</v>
       </c>
@@ -21945,7 +21964,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4.819</v>
       </c>
@@ -21977,7 +21996,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4.8920000000000003</v>
       </c>
@@ -22009,7 +22028,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>4.9630000000000001</v>
       </c>
@@ -22041,7 +22060,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5.03</v>
       </c>
@@ -22073,7 +22092,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>5.101</v>
       </c>
@@ -22105,7 +22124,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5.1749999999999998</v>
       </c>
@@ -22137,7 +22156,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>5.2439999999999998</v>
       </c>
@@ -22169,7 +22188,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5.3159999999999998</v>
       </c>
@@ -22201,7 +22220,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>5.3879999999999999</v>
       </c>
@@ -22233,7 +22252,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>5.46</v>
       </c>
@@ -22265,7 +22284,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>5.532</v>
       </c>
@@ -22297,7 +22316,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>5.6059999999999999</v>
       </c>
@@ -22329,7 +22348,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5.6769999999999996</v>
       </c>
@@ -22361,7 +22380,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>5.7530000000000001</v>
       </c>
@@ -22393,7 +22412,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5.83</v>
       </c>
@@ -22425,7 +22444,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>5.9029999999999996</v>
       </c>
@@ -22457,7 +22476,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>5.9779999999999998</v>
       </c>
@@ -22489,7 +22508,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>6.0510000000000002</v>
       </c>
@@ -22521,7 +22540,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>6.1239999999999997</v>
       </c>
@@ -22553,7 +22572,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>6.1970000000000001</v>
       </c>
@@ -22585,7 +22604,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>6.2679999999999998</v>
       </c>
@@ -22617,7 +22636,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>6.34</v>
       </c>
@@ -22649,7 +22668,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>6.4139999999999997</v>
       </c>
@@ -22681,7 +22700,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>6.4829999999999997</v>
       </c>
@@ -22713,7 +22732,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>6.55</v>
       </c>
@@ -22745,7 +22764,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>6.6230000000000002</v>
       </c>
@@ -22777,7 +22796,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>6.6980000000000004</v>
       </c>
@@ -22809,7 +22828,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>6.7709999999999999</v>
       </c>
@@ -22841,7 +22860,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>6.843</v>
       </c>
@@ -22873,7 +22892,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>6.9180000000000001</v>
       </c>
@@ -22905,7 +22924,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>6.992</v>
       </c>
@@ -22937,7 +22956,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>7.0629999999999997</v>
       </c>
@@ -22969,7 +22988,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>7.133</v>
       </c>
@@ -23001,7 +23020,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>7.2160000000000002</v>
       </c>
@@ -23033,7 +23052,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>7.3</v>
       </c>
@@ -23065,7 +23084,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>7.3739999999999997</v>
       </c>
@@ -23097,7 +23116,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>7.4470000000000001</v>
       </c>
@@ -23129,7 +23148,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>7.5190000000000001</v>
       </c>
@@ -23161,7 +23180,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>7.5890000000000004</v>
       </c>
@@ -23193,7 +23212,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>7.6589999999999998</v>
       </c>
@@ -23225,7 +23244,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>7.7309999999999999</v>
       </c>
@@ -23257,7 +23276,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>7.806</v>
       </c>
@@ -23289,7 +23308,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>7.8789999999999996</v>
       </c>
@@ -23321,7 +23340,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>7.944</v>
       </c>
@@ -23353,7 +23372,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>8.0120000000000005</v>
       </c>
@@ -23385,7 +23404,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>8.0839999999999996</v>
       </c>
@@ -23417,7 +23436,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>8.1539999999999999</v>
       </c>
@@ -23449,7 +23468,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>8.2260000000000009</v>
       </c>
@@ -23481,7 +23500,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>8.3010000000000002</v>
       </c>
@@ -23513,7 +23532,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>8.3729999999999993</v>
       </c>
@@ -23545,7 +23564,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>8.4420000000000002</v>
       </c>
@@ -23577,7 +23596,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>8.5129999999999999</v>
       </c>
@@ -23609,7 +23628,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>8.5860000000000003</v>
       </c>
@@ -23641,7 +23660,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>8.6590000000000007</v>
       </c>
@@ -23673,7 +23692,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>8.7319999999999993</v>
       </c>
@@ -23705,7 +23724,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>8.8070000000000004</v>
       </c>
@@ -23737,7 +23756,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>8.8800000000000008</v>
       </c>
@@ -23769,7 +23788,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>8.9489999999999998</v>
       </c>
@@ -23801,7 +23820,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>9.0190000000000001</v>
       </c>
@@ -23833,7 +23852,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>9.0909999999999993</v>
       </c>
@@ -23865,7 +23884,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>9.1630000000000003</v>
       </c>
@@ -23897,7 +23916,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>9.2349999999999994</v>
       </c>
@@ -23929,7 +23948,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>9.3059999999999992</v>
       </c>
@@ -23961,7 +23980,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>9.3810000000000002</v>
       </c>
@@ -23993,7 +24012,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>9.4529999999999994</v>
       </c>
@@ -24025,7 +24044,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>9.5220000000000002</v>
       </c>
@@ -24057,7 +24076,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>9.5939999999999994</v>
       </c>
@@ -24089,7 +24108,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>9.6669999999999998</v>
       </c>
@@ -24121,7 +24140,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>9.7349999999999994</v>
       </c>
@@ -24153,7 +24172,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>9.8040000000000003</v>
       </c>
@@ -24185,7 +24204,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>9.8759999999999994</v>
       </c>
@@ -24217,7 +24236,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>9.9450000000000003</v>
       </c>
@@ -24249,7 +24268,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>10.015000000000001</v>
       </c>
@@ -24281,7 +24300,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>10.085000000000001</v>
       </c>
@@ -24313,7 +24332,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>10.153</v>
       </c>
@@ -24345,7 +24364,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>10.222</v>
       </c>
@@ -24377,7 +24396,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>10.291</v>
       </c>
@@ -24409,7 +24428,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>10.362</v>
       </c>
@@ -24441,7 +24460,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>10.433</v>
       </c>
@@ -24473,7 +24492,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>10.504</v>
       </c>
@@ -24505,7 +24524,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>10.574</v>
       </c>
@@ -24537,7 +24556,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>10.645</v>
       </c>
@@ -24569,7 +24588,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>10.712999999999999</v>
       </c>
@@ -24601,7 +24620,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>10.781000000000001</v>
       </c>
@@ -24633,7 +24652,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>10.849</v>
       </c>
@@ -24665,7 +24684,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>10.92</v>
       </c>
@@ -24697,7 +24716,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>10.991</v>
       </c>
@@ -24729,7 +24748,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>11.06</v>
       </c>
@@ -24761,7 +24780,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>11.131</v>
       </c>
@@ -24793,7 +24812,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>11.202999999999999</v>
       </c>
@@ -24825,7 +24844,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>11.272</v>
       </c>
@@ -24857,7 +24876,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>11.345000000000001</v>
       </c>
@@ -24889,7 +24908,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>11.422000000000001</v>
       </c>
@@ -24921,7 +24940,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>11.496</v>
       </c>
@@ -24953,7 +24972,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>11.566000000000001</v>
       </c>
@@ -24985,7 +25004,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>11.638999999999999</v>
       </c>
@@ -25017,7 +25036,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>11.714</v>
       </c>
@@ -25049,7 +25068,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>11.787000000000001</v>
       </c>
@@ -25081,7 +25100,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>11.861000000000001</v>
       </c>
@@ -25113,7 +25132,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>11.935</v>
       </c>
@@ -25145,7 +25164,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>12.007</v>
       </c>
@@ -25177,7 +25196,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>12.076000000000001</v>
       </c>
@@ -25209,7 +25228,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>12.147</v>
       </c>
@@ -25241,7 +25260,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>12.224</v>
       </c>
@@ -25273,7 +25292,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>12.302</v>
       </c>
@@ -25305,7 +25324,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>12.374000000000001</v>
       </c>
@@ -25337,7 +25356,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>12.445</v>
       </c>
@@ -25369,7 +25388,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>12.516999999999999</v>
       </c>
@@ -25401,7 +25420,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>12.586</v>
       </c>
@@ -25433,7 +25452,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>12.654999999999999</v>
       </c>
@@ -25465,7 +25484,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>12.728</v>
       </c>
@@ -25497,7 +25516,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>12.802</v>
       </c>
@@ -25529,7 +25548,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>12.872</v>
       </c>
@@ -25561,7 +25580,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>12.94</v>
       </c>
@@ -25593,7 +25612,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>13.009</v>
       </c>
@@ -25625,7 +25644,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>13.081</v>
       </c>
@@ -25657,7 +25676,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>13.151</v>
       </c>
@@ -25689,7 +25708,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>13.224</v>
       </c>
@@ -25721,7 +25740,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>13.298</v>
       </c>
@@ -25753,7 +25772,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>13.368</v>
       </c>
@@ -25785,7 +25804,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>13.436999999999999</v>
       </c>
@@ -25817,7 +25836,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>13.509</v>
       </c>
@@ -25849,7 +25868,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>13.581</v>
       </c>
@@ -25881,7 +25900,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>13.647</v>
       </c>
@@ -25913,7 +25932,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>13.714</v>
       </c>
@@ -25945,7 +25964,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>13.786</v>
       </c>
@@ -25977,7 +25996,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>13.856</v>
       </c>
@@ -26009,7 +26028,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>13.923</v>
       </c>
@@ -26041,7 +26060,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>13.993</v>
       </c>
@@ -26073,7 +26092,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>14.066000000000001</v>
       </c>
@@ -26105,7 +26124,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>14.138</v>
       </c>
@@ -26137,7 +26156,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>14.207000000000001</v>
       </c>
@@ -26169,7 +26188,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14.279</v>
       </c>
@@ -26207,28 +26226,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -26259,8 +26279,14 @@
       <c r="N2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -26292,7 +26318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.22700000000000001</v>
       </c>
@@ -26324,7 +26350,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.38400000000000001</v>
       </c>
@@ -26356,7 +26382,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.52</v>
       </c>
@@ -26388,7 +26414,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.66600000000000004</v>
       </c>
@@ -26420,7 +26446,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.81299999999999994</v>
       </c>
@@ -26452,7 +26478,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.94499999999999995</v>
       </c>
@@ -26484,7 +26510,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.091</v>
       </c>
@@ -26516,7 +26542,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.2569999999999999</v>
       </c>
@@ -26548,7 +26574,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.409</v>
       </c>
@@ -26580,19 +26606,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.552</v>
       </c>
-      <c r="B13">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="D13">
         <v>1.5409999999999999</v>
       </c>
-      <c r="E13">
-        <v>0.06</v>
-      </c>
       <c r="G13">
         <v>1.6240000000000001</v>
       </c>
@@ -26612,7 +26632,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.7050000000000001</v>
       </c>
@@ -26644,7 +26664,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.853</v>
       </c>
@@ -26676,7 +26696,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.9950000000000001</v>
       </c>
@@ -26708,7 +26728,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.1389999999999998</v>
       </c>
@@ -26740,7 +26760,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.2879999999999998</v>
       </c>
@@ -26772,7 +26792,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.4249999999999998</v>
       </c>
@@ -26804,7 +26824,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.5529999999999999</v>
       </c>
@@ -26836,7 +26856,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.6890000000000001</v>
       </c>
@@ -26868,7 +26888,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2.84</v>
       </c>
@@ -26900,19 +26920,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.984</v>
       </c>
-      <c r="B23">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="D23">
         <v>2.9470000000000001</v>
       </c>
-      <c r="E23">
-        <v>0.08</v>
-      </c>
       <c r="G23">
         <v>3.1040000000000001</v>
       </c>
@@ -26932,7 +26946,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3.1190000000000002</v>
       </c>
@@ -26964,7 +26978,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3.2610000000000001</v>
       </c>
@@ -26996,7 +27010,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3.4049999999999998</v>
       </c>
@@ -27028,7 +27042,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3.5379999999999998</v>
       </c>
@@ -27060,7 +27074,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3.6720000000000002</v>
       </c>
@@ -27092,7 +27106,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3.8279999999999998</v>
       </c>
@@ -27124,7 +27138,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3.9820000000000002</v>
       </c>
@@ -27156,7 +27170,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4.117</v>
       </c>
@@ -27188,7 +27202,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4.2569999999999997</v>
       </c>
@@ -27220,19 +27234,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4.3959999999999999</v>
       </c>
-      <c r="B33">
-        <v>0.08</v>
-      </c>
       <c r="D33">
         <v>4.4370000000000003</v>
       </c>
-      <c r="E33">
-        <v>0.08</v>
-      </c>
       <c r="G33">
         <v>4.6070000000000002</v>
       </c>
@@ -27252,7 +27260,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4.5270000000000001</v>
       </c>
@@ -27284,7 +27292,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4.6639999999999997</v>
       </c>
@@ -27316,7 +27324,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4.8150000000000004</v>
       </c>
@@ -27348,7 +27356,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4.968</v>
       </c>
@@ -27380,7 +27388,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5.1040000000000001</v>
       </c>
@@ -27412,7 +27420,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5.2370000000000001</v>
       </c>
@@ -27444,7 +27452,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5.3840000000000003</v>
       </c>
@@ -27476,7 +27484,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5.5330000000000004</v>
       </c>
@@ -27508,7 +27516,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5.6760000000000002</v>
       </c>
@@ -27540,19 +27548,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5.819</v>
       </c>
-      <c r="B43">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="D43">
         <v>5.8479999999999999</v>
       </c>
-      <c r="E43">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G43">
         <v>6.117</v>
       </c>
@@ -27572,7 +27574,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5.9669999999999996</v>
       </c>
@@ -27604,7 +27606,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>6.1070000000000002</v>
       </c>
@@ -27636,7 +27638,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6.2359999999999998</v>
       </c>
@@ -27668,7 +27670,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6.3760000000000003</v>
       </c>
@@ -27700,7 +27702,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6.5289999999999999</v>
       </c>
@@ -27732,7 +27734,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6.6740000000000004</v>
       </c>
@@ -27764,7 +27766,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6.81</v>
       </c>
@@ -27796,7 +27798,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6.9589999999999996</v>
       </c>
@@ -27828,7 +27830,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7.109</v>
       </c>
@@ -27860,19 +27862,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>7.2519999999999998</v>
       </c>
-      <c r="B53">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="D53">
         <v>7.2969999999999997</v>
       </c>
-      <c r="E53">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G53">
         <v>7.6509999999999998</v>
       </c>
@@ -27892,7 +27888,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>7.4109999999999996</v>
       </c>
@@ -27924,7 +27920,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>7.5789999999999997</v>
       </c>
@@ -27956,7 +27952,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>7.7279999999999998</v>
       </c>
@@ -27988,7 +27984,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>7.8630000000000004</v>
       </c>
@@ -28020,7 +28016,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>8.0109999999999992</v>
       </c>
@@ -28052,7 +28048,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>8.1709999999999994</v>
       </c>
@@ -28084,7 +28080,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>8.3209999999999997</v>
       </c>
@@ -28116,7 +28112,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>8.4740000000000002</v>
       </c>
@@ -28148,7 +28144,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>8.641</v>
       </c>
@@ -28180,19 +28176,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>8.7919999999999998</v>
       </c>
-      <c r="B63">
-        <v>0.08</v>
-      </c>
       <c r="D63">
         <v>8.81</v>
       </c>
-      <c r="E63">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G63">
         <v>9.2189999999999994</v>
       </c>
@@ -28212,7 +28202,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>8.9250000000000007</v>
       </c>
@@ -28244,7 +28234,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>9.0739999999999998</v>
       </c>
@@ -28276,7 +28266,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>9.2409999999999997</v>
       </c>
@@ -28308,7 +28298,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>9.4060000000000006</v>
       </c>
@@ -28340,7 +28330,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>9.5589999999999993</v>
       </c>
@@ -28372,7 +28362,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>9.7219999999999995</v>
       </c>
@@ -28404,7 +28394,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9.8930000000000007</v>
       </c>
@@ -28436,7 +28426,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10.045</v>
       </c>
@@ -28468,7 +28458,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>10.19</v>
       </c>
@@ -28500,19 +28490,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>10.351000000000001</v>
       </c>
-      <c r="B73">
-        <v>0.06</v>
-      </c>
       <c r="D73">
         <v>10.367000000000001</v>
       </c>
-      <c r="E73">
-        <v>0.06</v>
-      </c>
       <c r="G73">
         <v>10.824999999999999</v>
       </c>
@@ -28532,7 +28516,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>10.51</v>
       </c>
@@ -28564,7 +28548,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>10.651</v>
       </c>
@@ -28596,7 +28580,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>10.79</v>
       </c>
@@ -28628,7 +28612,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>10.944000000000001</v>
       </c>
@@ -28660,7 +28644,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>11.099</v>
       </c>
@@ -28692,7 +28676,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>11.246</v>
       </c>
@@ -28724,7 +28708,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>11.404</v>
       </c>
@@ -28756,7 +28740,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>11.565</v>
       </c>
@@ -28788,7 +28772,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>11.708</v>
       </c>
@@ -28820,19 +28804,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>11.858000000000001</v>
       </c>
-      <c r="B83">
-        <v>0.06</v>
-      </c>
       <c r="D83">
         <v>11.93</v>
       </c>
-      <c r="E83">
-        <v>0.06</v>
-      </c>
       <c r="G83">
         <v>12.430999999999999</v>
       </c>
@@ -28852,7 +28830,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>12.023</v>
       </c>
@@ -28884,7 +28862,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>12.177</v>
       </c>
@@ -28916,7 +28894,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>12.326000000000001</v>
       </c>
@@ -28948,7 +28926,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12.478</v>
       </c>
@@ -28980,7 +28958,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>12.635999999999999</v>
       </c>
@@ -29012,7 +28990,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>12.784000000000001</v>
       </c>
@@ -29044,7 +29022,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>12.923</v>
       </c>
@@ -29076,7 +29054,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>13.079000000000001</v>
       </c>
@@ -29108,7 +29086,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>13.244999999999999</v>
       </c>
@@ -29140,19 +29118,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>13.385999999999999</v>
       </c>
-      <c r="B93">
-        <v>0.08</v>
-      </c>
       <c r="D93">
         <v>13.46</v>
       </c>
-      <c r="E93">
-        <v>0.09</v>
-      </c>
       <c r="G93">
         <v>14.012</v>
       </c>
@@ -29172,7 +29144,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>13.518000000000001</v>
       </c>
@@ -29204,7 +29176,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>13.675000000000001</v>
       </c>
@@ -29236,7 +29208,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>13.834</v>
       </c>
@@ -29268,7 +29240,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>13.977</v>
       </c>
@@ -29300,7 +29272,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>14.125</v>
       </c>
@@ -29332,7 +29304,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>14.289</v>
       </c>
@@ -29364,7 +29336,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>14.441000000000001</v>
       </c>
@@ -29396,7 +29368,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>14.574</v>
       </c>
@@ -29428,7 +29400,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14.721</v>
       </c>
@@ -29460,19 +29432,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>14.9</v>
       </c>
-      <c r="B103">
-        <v>0.05</v>
-      </c>
       <c r="D103">
         <v>15.002000000000001</v>
       </c>
-      <c r="E103">
-        <v>0.05</v>
-      </c>
       <c r="G103">
         <v>15.598000000000001</v>
       </c>
@@ -29492,7 +29458,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>15.069000000000001</v>
       </c>
@@ -29524,7 +29490,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>15.217000000000001</v>
       </c>
@@ -29556,7 +29522,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>15.368</v>
       </c>
@@ -29588,7 +29554,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>15.510999999999999</v>
       </c>
@@ -29620,7 +29586,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>15.646000000000001</v>
       </c>
@@ -29652,7 +29618,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>15.791</v>
       </c>
@@ -29684,7 +29650,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>15.946</v>
       </c>
@@ -29716,7 +29682,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>16.094999999999999</v>
       </c>
@@ -29748,7 +29714,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>16.236000000000001</v>
       </c>
@@ -29780,19 +29746,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>16.372</v>
       </c>
-      <c r="B113">
-        <v>0.08</v>
-      </c>
       <c r="D113">
         <v>16.484000000000002</v>
       </c>
-      <c r="E113">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G113">
         <v>17.128</v>
       </c>
@@ -29812,7 +29772,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>16.515000000000001</v>
       </c>
@@ -29844,7 +29804,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>16.66</v>
       </c>
@@ -29876,7 +29836,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>16.797999999999998</v>
       </c>
@@ -29908,7 +29868,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>16.954000000000001</v>
       </c>
@@ -29940,7 +29900,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>17.109000000000002</v>
       </c>
@@ -29972,7 +29932,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>17.245000000000001</v>
       </c>
@@ -30004,7 +29964,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>17.387</v>
       </c>
@@ -30036,7 +29996,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>17.544</v>
       </c>
@@ -30068,7 +30028,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>17.690999999999999</v>
       </c>
@@ -30100,19 +30060,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>17.831</v>
       </c>
-      <c r="B123">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="D123">
         <v>17.960999999999999</v>
       </c>
-      <c r="E123">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G123">
         <v>18.681000000000001</v>
       </c>
@@ -30132,7 +30086,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>17.983000000000001</v>
       </c>
@@ -30164,7 +30118,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>18.137</v>
       </c>
@@ -30196,7 +30150,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>18.274999999999999</v>
       </c>
@@ -30228,7 +30182,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>18.41</v>
       </c>
@@ -30260,7 +30214,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>18.559999999999999</v>
       </c>
@@ -30292,7 +30246,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>18.71</v>
       </c>
@@ -30324,7 +30278,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>18.853000000000002</v>
       </c>
@@ -30356,7 +30310,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>18.998999999999999</v>
       </c>
@@ -30388,7 +30342,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>19.149000000000001</v>
       </c>
@@ -30420,19 +30374,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>19.295999999999999</v>
       </c>
-      <c r="B133">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="D133">
         <v>19.437999999999999</v>
       </c>
-      <c r="E133">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G133">
         <v>20.216000000000001</v>
       </c>
@@ -30452,7 +30400,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>19.433</v>
       </c>
@@ -30484,7 +30432,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>19.577000000000002</v>
       </c>
@@ -30516,7 +30464,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>19.728999999999999</v>
       </c>
@@ -30548,7 +30496,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>19.87</v>
       </c>
@@ -30580,7 +30528,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>20.003</v>
       </c>
@@ -30612,7 +30560,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>20.146000000000001</v>
       </c>
@@ -30644,7 +30592,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>20.288</v>
       </c>
@@ -30676,7 +30624,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>20.422000000000001</v>
       </c>
@@ -30708,7 +30656,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>20.565999999999999</v>
       </c>
@@ -30740,19 +30688,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>20.713999999999999</v>
       </c>
-      <c r="B143">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="D143">
         <v>20.873999999999999</v>
       </c>
-      <c r="E143">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G143">
         <v>21.713000000000001</v>
       </c>
@@ -30772,7 +30714,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>20.847999999999999</v>
       </c>
@@ -30804,7 +30746,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>20.977</v>
       </c>
@@ -30836,7 +30778,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>21.12</v>
       </c>
@@ -30868,7 +30810,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>21.271000000000001</v>
       </c>
@@ -30900,7 +30842,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>21.41</v>
       </c>
@@ -30932,7 +30874,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>21.547000000000001</v>
       </c>
@@ -30964,7 +30906,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>21.692</v>
       </c>
@@ -30996,7 +30938,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>21.832999999999998</v>
       </c>
@@ -31028,7 +30970,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>21.96</v>
       </c>
@@ -31060,19 +31002,13 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>22.094000000000001</v>
       </c>
-      <c r="B153">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="D153">
         <v>22.286000000000001</v>
       </c>
-      <c r="E153">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G153">
         <v>23.167999999999999</v>
       </c>
@@ -31092,7 +31028,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>22.24</v>
       </c>
@@ -31124,7 +31060,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>22.385000000000002</v>
       </c>
@@ -31156,7 +31092,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>22.523</v>
       </c>
@@ -31188,7 +31124,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>22.664000000000001</v>
       </c>
@@ -31220,7 +31156,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>22.811</v>
       </c>
@@ -31252,7 +31188,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>22.951000000000001</v>
       </c>
@@ -31284,7 +31220,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>23.088999999999999</v>
       </c>
@@ -31316,7 +31252,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>23.262</v>
       </c>
@@ -31348,7 +31284,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>23.443000000000001</v>
       </c>
@@ -31380,19 +31316,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>23.59</v>
       </c>
-      <c r="B163">
-        <v>0.08</v>
-      </c>
       <c r="D163">
         <v>23.795999999999999</v>
       </c>
-      <c r="E163">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G163">
         <v>24.725000000000001</v>
       </c>
@@ -31412,7 +31342,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>23.739000000000001</v>
       </c>
@@ -31444,7 +31374,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>23.907</v>
       </c>
@@ -31476,7 +31406,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>24.065000000000001</v>
       </c>
@@ -31508,7 +31438,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>24.212</v>
       </c>
@@ -31540,7 +31470,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>24.366</v>
       </c>
@@ -31572,7 +31502,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>24.518000000000001</v>
       </c>
@@ -31604,7 +31534,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>24.658000000000001</v>
       </c>
@@ -31636,7 +31566,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>24.792000000000002</v>
       </c>
@@ -31668,7 +31598,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>24.936</v>
       </c>
@@ -31700,19 +31630,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>25.091999999999999</v>
       </c>
-      <c r="B173">
-        <v>0.06</v>
-      </c>
       <c r="D173">
         <v>25.343</v>
       </c>
-      <c r="E173">
-        <v>0.06</v>
-      </c>
       <c r="G173">
         <v>26.329000000000001</v>
       </c>
@@ -31732,7 +31656,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>25.242000000000001</v>
       </c>
@@ -31764,7 +31688,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>25.387</v>
       </c>
@@ -31796,7 +31720,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>25.536999999999999</v>
       </c>
@@ -31828,7 +31752,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>25.677</v>
       </c>
@@ -31860,7 +31784,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>25.809000000000001</v>
       </c>
@@ -31892,7 +31816,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>25.95</v>
       </c>
@@ -31924,7 +31848,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>26.102</v>
       </c>
@@ -31956,7 +31880,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>26.242999999999999</v>
       </c>
@@ -31988,7 +31912,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>26.376999999999999</v>
       </c>
@@ -32020,19 +31944,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>26.521000000000001</v>
       </c>
-      <c r="B183">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="D183">
         <v>26.809000000000001</v>
       </c>
-      <c r="E183">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="G183">
         <v>27.847000000000001</v>
       </c>
@@ -32052,7 +31970,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>26.664000000000001</v>
       </c>
@@ -32084,7 +32002,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>26.797000000000001</v>
       </c>
@@ -32116,7 +32034,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>26.939</v>
       </c>
@@ -32148,7 +32066,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>27.094000000000001</v>
       </c>
@@ -32180,7 +32098,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>27.236000000000001</v>
       </c>
@@ -32212,7 +32130,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>27.367000000000001</v>
       </c>
@@ -32244,7 +32162,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>27.509</v>
       </c>
@@ -32276,7 +32194,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>27.661999999999999</v>
       </c>
@@ -32308,7 +32226,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>27.805</v>
       </c>
@@ -32340,19 +32258,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>27.936</v>
       </c>
-      <c r="B193">
-        <v>0.08</v>
-      </c>
       <c r="D193">
         <v>28.256</v>
       </c>
-      <c r="E193">
-        <v>0.08</v>
-      </c>
       <c r="G193">
         <v>29.327999999999999</v>
       </c>
@@ -32372,7 +32284,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>28.074999999999999</v>
       </c>
@@ -32404,7 +32316,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>28.218</v>
       </c>
@@ -32436,7 +32348,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>28.349</v>
       </c>
@@ -32468,7 +32380,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>28.481999999999999</v>
       </c>
@@ -32500,7 +32412,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>28.631</v>
       </c>
@@ -32532,7 +32444,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>28.785</v>
       </c>
@@ -32564,7 +32476,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>28.927</v>
       </c>
@@ -32596,7 +32508,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>29.07</v>
       </c>
@@ -32628,7 +32540,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>29.221</v>
       </c>
